--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.741242404255645</v>
+        <v>0.757644</v>
       </c>
       <c r="N2">
-        <v>0.741242404255645</v>
+        <v>2.272932</v>
       </c>
       <c r="O2">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="P2">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
       <c r="Q2">
-        <v>0.1741885437158138</v>
+        <v>0.014766229012</v>
       </c>
       <c r="R2">
-        <v>0.1741885437158138</v>
+        <v>0.132896061108</v>
       </c>
       <c r="S2">
-        <v>0.02516332029267759</v>
+        <v>0.001704402332320961</v>
       </c>
       <c r="T2">
-        <v>0.02516332029267759</v>
+        <v>0.00178743445249562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4661461876977</v>
+        <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>23.4661461876977</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="P3">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
       <c r="Q3">
-        <v>5.514436043580313</v>
+        <v>0.4919034844918889</v>
       </c>
       <c r="R3">
-        <v>5.514436043580313</v>
+        <v>4.427131360427</v>
       </c>
       <c r="S3">
-        <v>0.7966168006116678</v>
+        <v>0.05677830443801484</v>
       </c>
       <c r="T3">
-        <v>0.7966168006116678</v>
+        <v>0.05954433151273188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.494130275780154</v>
+        <v>0.6151326666666667</v>
       </c>
       <c r="N4">
-        <v>0.494130275780154</v>
+        <v>1.845398</v>
       </c>
       <c r="O4">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="P4">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
       <c r="Q4">
-        <v>0.1161183340967544</v>
+        <v>0.01198873062911111</v>
       </c>
       <c r="R4">
-        <v>0.1161183340967544</v>
+        <v>0.107898575662</v>
       </c>
       <c r="S4">
-        <v>0.01677448338678262</v>
+        <v>0.001383807634922838</v>
       </c>
       <c r="T4">
-        <v>0.01677448338678262</v>
+        <v>0.001451221578017518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H5">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065132849578</v>
+        <v>0.5356743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5065132849578</v>
+        <v>1.607023</v>
       </c>
       <c r="O5">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="P5">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
       <c r="Q5">
-        <v>0.1190282840983868</v>
+        <v>0.01044011419855555</v>
       </c>
       <c r="R5">
-        <v>0.1190282840983868</v>
+        <v>0.093961027787</v>
       </c>
       <c r="S5">
-        <v>0.01719485548683426</v>
+        <v>0.001205057498109678</v>
       </c>
       <c r="T5">
-        <v>0.01719485548683426</v>
+        <v>0.001263763401700037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,359 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H6">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.24922530118068</v>
+        <v>4.395899500000001</v>
       </c>
       <c r="N6">
-        <v>4.24922530118068</v>
+        <v>8.791799000000001</v>
       </c>
       <c r="O6">
-        <v>0.1442505402220377</v>
+        <v>0.139359717597582</v>
       </c>
       <c r="P6">
-        <v>0.1442505402220377</v>
+        <v>0.09743253526482902</v>
       </c>
       <c r="Q6">
-        <v>0.9985483330197864</v>
+        <v>0.08567461595516668</v>
       </c>
       <c r="R6">
-        <v>0.9985483330197864</v>
+        <v>0.5140476957310001</v>
       </c>
       <c r="S6">
-        <v>0.1442505402220377</v>
+        <v>0.009889052589934782</v>
       </c>
       <c r="T6">
-        <v>0.1442505402220377</v>
+        <v>0.006913873548358045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.757644</v>
+      </c>
+      <c r="N7">
+        <v>2.272932</v>
+      </c>
+      <c r="O7">
+        <v>0.02401898721285653</v>
+      </c>
+      <c r="P7">
+        <v>0.02518910262217759</v>
+      </c>
+      <c r="Q7">
+        <v>0.19332423126</v>
+      </c>
+      <c r="R7">
+        <v>1.73991808134</v>
+      </c>
+      <c r="S7">
+        <v>0.02231458488053557</v>
+      </c>
+      <c r="T7">
+        <v>0.02340166816968197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.23919433333333</v>
+      </c>
+      <c r="N8">
+        <v>75.717583</v>
+      </c>
+      <c r="O8">
+        <v>0.8001381730141521</v>
+      </c>
+      <c r="P8">
+        <v>0.8391179183936208</v>
+      </c>
+      <c r="Q8">
+        <v>6.440159022064999</v>
+      </c>
+      <c r="R8">
+        <v>57.961431198585</v>
+      </c>
+      <c r="S8">
+        <v>0.7433598685761372</v>
+      </c>
+      <c r="T8">
+        <v>0.779573586880889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6151326666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.845398</v>
+      </c>
+      <c r="O9">
+        <v>0.0195010633686494</v>
+      </c>
+      <c r="P9">
+        <v>0.02045108239083319</v>
+      </c>
+      <c r="Q9">
+        <v>0.15696032689</v>
+      </c>
+      <c r="R9">
+        <v>1.41264294201</v>
+      </c>
+      <c r="S9">
+        <v>0.01811725573372656</v>
+      </c>
+      <c r="T9">
+        <v>0.01899986081281568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.255165</v>
+      </c>
+      <c r="H10">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J10">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5356743333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.607023</v>
+      </c>
+      <c r="O10">
+        <v>0.01698205880675987</v>
+      </c>
+      <c r="P10">
+        <v>0.01780936132853939</v>
+      </c>
+      <c r="Q10">
+        <v>0.136685341265</v>
+      </c>
+      <c r="R10">
+        <v>1.230168071385</v>
+      </c>
+      <c r="S10">
+        <v>0.01577700130865019</v>
+      </c>
+      <c r="T10">
+        <v>0.01654559792683935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255165</v>
+      </c>
+      <c r="H11">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J11">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N11">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P11">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q11">
+        <v>1.1216796959175</v>
+      </c>
+      <c r="R11">
+        <v>6.730078175505001</v>
+      </c>
+      <c r="S11">
+        <v>0.1294706650076472</v>
+      </c>
+      <c r="T11">
+        <v>0.09051866171647098</v>
       </c>
     </row>
   </sheetData>
